--- a/PO/data/loanStats2.xlsx
+++ b/PO/data/loanStats2.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/PO/data/loanStats2.xlsx
+++ b/PO/data/loanStats2.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
